--- a/data/migrate.xlsx
+++ b/data/migrate.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="start_migrate" sheetId="5" r:id="rId1"/>
-    <sheet name="forbidden_action" sheetId="13" r:id="rId2"/>
-    <sheet name="stop_migrate" sheetId="9" r:id="rId3"/>
-    <sheet name="help_migrate" sheetId="10" r:id="rId4"/>
-    <sheet name="invalid_setting_for_migrate" sheetId="3" r:id="rId5"/>
-    <sheet name="invalid_option_for_migrate" sheetId="2" r:id="rId6"/>
-    <sheet name="missing_parameter_migrate" sheetId="4" r:id="rId7"/>
+    <sheet name="start_local_migrate" sheetId="5" r:id="rId1"/>
+    <sheet name="start_remote_migrate" sheetId="14" r:id="rId2"/>
+    <sheet name="forbidden_action" sheetId="13" r:id="rId3"/>
+    <sheet name="stop_migrate" sheetId="9" r:id="rId4"/>
+    <sheet name="help_migrate" sheetId="10" r:id="rId5"/>
+    <sheet name="invalid_setting_for_migrate" sheetId="3" r:id="rId6"/>
+    <sheet name="invalid_option_for_migrate" sheetId="2" r:id="rId7"/>
+    <sheet name="missing_parameter_migrate" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="144">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +98,6 @@
     <t>AdvRole: Destination</t>
   </si>
   <si>
-    <t>AdvMode: Active-Passive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AdvProtocol: Semi-Sync</t>
   </si>
   <si>
@@ -449,6 +446,105 @@
   </si>
   <si>
     <t>migrate -a start -t local -i 0 -p 2 -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 4 -p 0 -s "syncmode=sync,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 5 -p 0 -s "srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate of remote type should be started by "syncmode=async"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate of remote type should be started by "syncmode=semi-sync"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate of remote type should be started by "syncmode=sync"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate of remote type should be started by default volues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 2 -p 0 -s "syncmode=async,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 3 -p 0 -s "syncmode=semi-sync,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 2 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 3 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 4 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 5 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvMode: Active-Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvKind: Remote</t>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=256.0.0.1,dstip=10.0.0.2, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.256.0.1,dstip=10.0.0.2, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.0.256.1,dstip=10.0.0.2, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.84.2.164,dstip=10.0.254.2, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "syncmode=t,srcip=10.84.2.164,dstip=10.84.2.115, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip nonconformity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.0.0.256,dstip=10.0.0.2, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specify nonexistent destination host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.84.254.164,dstip=10.84.1.115, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specify nonexistent source host</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,9 +588,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -798,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -815,8 +912,7 @@
     <col min="9" max="9" width="22.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -836,31 +932,31 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -869,42 +965,42 @@
         <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
@@ -913,24 +1009,24 @@
         <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -948,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
@@ -957,24 +1053,24 @@
         <v>21</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
         <v>85</v>
       </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -992,22 +1088,22 @@
         <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -1021,6 +1117,228 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="115.125" customWidth="1"/>
+    <col min="2" max="2" width="65.25" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1041,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1049,125 +1367,125 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1208,16 +1526,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1260,10 +1578,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1276,163 +1594,6 @@
       </c>
       <c r="F2" t="s">
         <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="77.375" customWidth="1"/>
-    <col min="2" max="3" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1443,6 +1604,222 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="109.625" customWidth="1"/>
+    <col min="2" max="3" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1461,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1469,10 +1846,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1480,7 +1857,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1491,7 +1868,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1502,18 +1879,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1528,7 +1905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1547,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1555,7 +1932,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1566,10 +1943,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1577,7 +1954,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1588,7 +1965,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1599,7 +1976,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1610,7 +1987,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1621,7 +1998,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1632,7 +2009,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>

--- a/data/migrate.xlsx
+++ b/data/migrate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="start_local_migrate" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="148">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,6 +546,20 @@
   <si>
     <t>specify nonexistent source host</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 2 -v</t>
+  </si>
+  <si>
+    <t>volume -i 2 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source volume should be delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No volume exists</t>
   </si>
 </sst>
 </file>
@@ -895,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -904,7 +918,7 @@
     <col min="1" max="1" width="62.75" customWidth="1"/>
     <col min="2" max="2" width="54.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
@@ -1107,7 +1121,18 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D6" s="1"/>
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1118,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1129,7 +1154,7 @@
     <col min="1" max="1" width="115.125" customWidth="1"/>
     <col min="2" max="2" width="65.25" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
@@ -1331,6 +1356,20 @@
         <v>34</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1343,7 +1382,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1500,7 +1539,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1607,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/migrate.xlsx
+++ b/data/migrate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="start_local_migrate" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="143">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,36 +141,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AdvStatus: Syncing</t>
-  </si>
-  <si>
     <t>Active-Passive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>volume -a del -i 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pool -a del -i 1 -f -y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>volume -a export -i 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a add -t volume -d 6 -s "name=test_replica"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Error (</t>
   </si>
   <si>
-    <t>volume -a del -i 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expected</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,34 +196,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>volume -v -i 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -i 6 -s "name=no_way"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -i 6 -s "capacity=6GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>destination volume should not be expanded</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>volume -a mod -i 2 -s "capacity=5GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>source volume should not be expanded</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lunmap -a add -p volume -i 0 -l 6 -m 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>specify nonexistent source volume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,12 +232,6 @@
     <t>Volume id=[20] is not existed</t>
   </si>
   <si>
-    <t>invalid setting test (async|semi-sync|sync)</t>
-  </si>
-  <si>
-    <t>Incorrect parameters</t>
-  </si>
-  <si>
     <t>invalid option: test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,15 +244,246 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zp254243d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>destination pool capacity should be more than soure volume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fail to execute this method</t>
+    <t>migrate should be started by "syncmode=async"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate should be started by "syncmode=semi-sync"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate should be started by "syncmode=sync"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvType: Migration</t>
+  </si>
+  <si>
+    <t>migrate should be started by default volues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvRole: Source</t>
+  </si>
+  <si>
+    <t>specific migrate should be stopped</t>
+  </si>
+  <si>
+    <t>migrate -h</t>
+  </si>
+  <si>
+    <t>migrate help document should be displayed</t>
+  </si>
+  <si>
+    <t>migrate test</t>
+  </si>
+  <si>
+    <t>migrate -a test</t>
+  </si>
+  <si>
+    <t>migrate -a stop -i test</t>
+  </si>
+  <si>
+    <t>migrate -a stop -i 20</t>
+  </si>
+  <si>
+    <t>migrate -test</t>
+  </si>
+  <si>
+    <t>migrate -a -test</t>
+  </si>
+  <si>
+    <t>migrate -a start -test</t>
+  </si>
+  <si>
+    <t>migrate -a stop -test</t>
+  </si>
+  <si>
+    <t>migrate -a</t>
+  </si>
+  <si>
+    <t>migrate -a start</t>
+  </si>
+  <si>
+    <t>migrate -a stop</t>
+  </si>
+  <si>
+    <t>migrate -a stop -i</t>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i 0 -p 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i 100 -p 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i 0 -p 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i 1 -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i 0 -p 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i 0 -p 1 -s "syncmode=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can not migrate Volume to the same Pool</t>
+  </si>
+  <si>
+    <t>migrate -a start -i 0 -p 1 -s "test=sync"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i 0 -p 2 -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate of remote type should be started by "syncmode=async"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate of remote type should be started by "syncmode=semi-sync"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate of remote type should be started by "syncmode=sync"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate of remote type should be started by default volues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvKind: Remote</t>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=256.0.0.1,dstip=10.0.0.2, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.256.0.1,dstip=10.0.0.2, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.0.256.1,dstip=10.0.0.2, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.84.2.164,dstip=10.0.254.2, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "syncmode=t,srcip=10.84.2.164,dstip=10.84.2.115, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip nonconformity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.0.0.256,dstip=10.0.0.2, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specify nonexistent destination host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.84.254.164,dstip=10.84.1.115, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specify nonexistent source host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 2 -v</t>
+  </si>
+  <si>
+    <t>volume -i 2 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source volume should be delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No volume exists</t>
+  </si>
+  <si>
+    <t>volume -i 10 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 11 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 12 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvMode: Active-Passive</t>
+  </si>
+  <si>
+    <t>AdvMode: Active-Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 6 -p 0 -s "syncmode=async,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 7 -p 0 -s "syncmode=semi-sync,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 8 -p 0 -s "syncmode=sync,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 9 -p 0 -s "srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 9 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 6 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific volume not exists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>migrate -a start -t local -i 2 -p 1 -s "syncmode=async"</t>
@@ -312,254 +498,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>migrate should be started by "syncmode=async"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate should be started by "syncmode=semi-sync"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate should be started by "syncmode=sync"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdvType: Migration</t>
-  </si>
-  <si>
-    <t>Max 4 pairs of migrate</t>
-  </si>
-  <si>
     <t>migrate -a start -t local -i 5 -p 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>migrate should be started by default volues</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdvRole: Source</t>
-  </si>
-  <si>
-    <t>migrate -a start -i 0 -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Support maximum 4 local migration</t>
-  </si>
-  <si>
-    <t>migrate -a stop -i 2</t>
-  </si>
-  <si>
-    <t>specific migrate should be stopped</t>
-  </si>
-  <si>
-    <t>migrate -h</t>
-  </si>
-  <si>
-    <t>migrate help document should be displayed</t>
-  </si>
-  <si>
-    <t>migrate test</t>
-  </si>
-  <si>
-    <t>migrate -a test</t>
-  </si>
-  <si>
-    <t>migrate -a stop -i test</t>
-  </si>
-  <si>
-    <t>migrate -a stop -i 9</t>
-  </si>
-  <si>
-    <t>migrate should not stop by destination volume</t>
-  </si>
-  <si>
-    <t>migrate -a stop -i 20</t>
-  </si>
-  <si>
-    <t>migrate -test</t>
-  </si>
-  <si>
-    <t>migrate -a -test</t>
-  </si>
-  <si>
-    <t>migrate -a start -test</t>
-  </si>
-  <si>
-    <t>migrate -a stop -test</t>
-  </si>
-  <si>
-    <t>migrate -a</t>
-  </si>
-  <si>
-    <t>migrate -a start</t>
-  </si>
-  <si>
-    <t>migrate -a stop</t>
-  </si>
-  <si>
-    <t>migrate -a stop -i</t>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i 0 -p 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i 100 -p 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i 0 -p 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i 1 -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i 0 -p 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i 0 -p 1 -s "syncmode=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can not migrate Volume to the same Pool</t>
-  </si>
-  <si>
-    <t>migrate -a start -i 0 -p 1 -s "test=sync"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i 0 -p 2 -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 4 -p 0 -s "syncmode=sync,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 5 -p 0 -s "srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate of remote type should be started by "syncmode=async"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate of remote type should be started by "syncmode=semi-sync"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate of remote type should be started by "syncmode=sync"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate of remote type should be started by default volues</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 2 -p 0 -s "syncmode=async,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 3 -p 0 -s "syncmode=semi-sync,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 2 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 3 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 4 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 5 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdvMode: Active-Active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdvKind: Remote</t>
-  </si>
-  <si>
-    <t>Invalid setting parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=256.0.0.1,dstip=10.0.0.2, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.256.0.1,dstip=10.0.0.2, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.0.256.1,dstip=10.0.0.2, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.84.2.164,dstip=10.0.254.2, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 0 -p 0 -s "syncmode=t,srcip=10.84.2.164,dstip=10.84.2.115, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip nonconformity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.0.0.256,dstip=10.0.0.2, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specify nonexistent destination host</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.84.254.164,dstip=10.84.1.115, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specify nonexistent source host</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 2 -v</t>
-  </si>
-  <si>
-    <t>volume -i 2 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source volume should be delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No volume exists</t>
+    <t>volume -a mod -i 12 -s "name=no_way"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a add -t volume -d 12 -s "name=test_replica"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -p volume -i 0 -l 12 -m 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 12 -s "capacity=102GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 4 -s "capacity=102GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a unexport -i 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a stop -i 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -v -i 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destination Pool availiable size is not enough</t>
+  </si>
+  <si>
+    <t>(async|semi-sync|sync)</t>
   </si>
 </sst>
 </file>
@@ -907,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -927,10 +913,9 @@
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.75" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -944,15 +929,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
@@ -970,7 +955,7 @@
         <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -979,24 +964,21 @@
         <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -1014,7 +996,7 @@
         <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
@@ -1023,24 +1005,21 @@
         <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -1058,7 +1037,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
@@ -1067,21 +1046,18 @@
         <v>21</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
       </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -1102,36 +1078,33 @@
         <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M5" t="s">
         <v>24</v>
       </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1143,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1163,10 +1136,9 @@
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1180,103 +1152,97 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -1294,33 +1260,30 @@
         <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
       </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
         <v>124</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -1338,36 +1301,33 @@
         <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="M5" t="s">
         <v>24</v>
       </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1398,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1406,125 +1366,114 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1488,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1565,16 +1514,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1617,10 +1566,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1644,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1662,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1670,18 +1619,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1692,132 +1641,132 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1826,29 +1775,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1885,10 +1820,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1896,7 +1831,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1907,7 +1842,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1918,18 +1853,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1948,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1963,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1971,7 +1906,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1982,10 +1917,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1993,7 +1928,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2004,7 +1939,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2015,7 +1950,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2026,7 +1961,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -2037,7 +1972,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -2048,7 +1983,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>

--- a/data/migrate.xlsx
+++ b/data/migrate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="start_local_migrate" sheetId="5" r:id="rId1"/>
@@ -458,6 +458,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>migrate -a start -t remote -i 8 -p 0 -s "syncmode=sync,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 9 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 6 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific volume not exists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i 2 -p 1 -s "syncmode=async"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i 3 -p 1 -s "syncmode=semi-sync"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i 4 -p 0 -s "syncmode=sync"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i 5 -p 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 12 -s "name=no_way"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a add -t volume -d 12 -s "name=test_replica"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -p volume -i 0 -l 12 -m 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 12 -s "capacity=102GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 4 -s "capacity=102GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a unexport -i 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a stop -i 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -v -i 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destination Pool availiable size is not enough</t>
+  </si>
+  <si>
+    <t>(async|semi-sync|sync)</t>
+  </si>
+  <si>
     <t>migrate -a start -t remote -i 6 -p 0 -s "syncmode=async,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,86 +544,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>migrate -a start -t remote -i 8 -p 0 -s "syncmode=sync,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>migrate -a start -t remote -i 9 -p 0 -s "srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 9 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 6 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific volume not exists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i 2 -p 1 -s "syncmode=async"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i 3 -p 1 -s "syncmode=semi-sync"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i 4 -p 0 -s "syncmode=sync"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i 5 -p 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -i 12 -s "name=no_way"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a add -t volume -d 12 -s "name=test_replica"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -a add -p volume -i 0 -l 12 -m 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -i 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -i 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -i 12 -s "capacity=102GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -i 4 -s "capacity=102GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a unexport -i 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a stop -i 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -v -i 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Destination Pool availiable size is not enough</t>
-  </si>
-  <si>
-    <t>(async|semi-sync|sync)</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -1118,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>96</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
         <v>97</v>
@@ -1277,13 +1277,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -1324,10 +1324,10 @@
         <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
@@ -1514,13 +1514,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -1647,7 +1647,7 @@
         <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1702,7 +1702,7 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1713,7 +1713,7 @@
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -1883,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/migrate.xlsx
+++ b/data/migrate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="start_local_migrate" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="140">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,166 +385,153 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.256.0.1,dstip=10.0.0.2, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.0.256.1,dstip=10.0.0.2, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.84.2.164,dstip=10.0.254.2, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "syncmode=t,srcip=10.84.2.164,dstip=10.84.2.115, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip nonconformity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.0.0.256,dstip=10.0.0.2, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specify nonexistent destination host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.84.254.164,dstip=10.84.1.115, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specify nonexistent source host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 10 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 11 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 12 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvMode: Active-Passive</t>
+  </si>
+  <si>
+    <t>AdvMode: Active-Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 8 -p 0 -s "syncmode=sync,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 9 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i 2 -p 1 -s "syncmode=async"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i 3 -p 1 -s "syncmode=semi-sync"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i 4 -p 0 -s "syncmode=sync"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t local -i 5 -p 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 12 -s "name=no_way"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a add -t volume -d 12 -s "name=test_replica"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -p volume -i 0 -l 12 -m 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 12 -s "capacity=102GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 4 -s "capacity=102GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a unexport -i 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a stop -i 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -v -i 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destination Pool availiable size is not enough</t>
+  </si>
+  <si>
+    <t>(async|semi-sync|sync)</t>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 6 -p 0 -s "syncmode=async,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 7 -p 0 -s "syncmode=semi-sync,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 9 -p 0 -s "srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote</t>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i</t>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 2 -s</t>
+  </si>
+  <si>
     <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=256.0.0.1,dstip=10.0.0.2, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.256.0.1,dstip=10.0.0.2, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.0.256.1,dstip=10.0.0.2, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.84.2.164,dstip=10.0.254.2, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 0 -p 0 -s "syncmode=t,srcip=10.84.2.164,dstip=10.84.2.115, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip nonconformity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.0.0.256,dstip=10.0.0.2, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specify nonexistent destination host</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.84.254.164,dstip=10.84.1.115, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specify nonexistent source host</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 2 -v</t>
-  </si>
-  <si>
-    <t>volume -i 2 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source volume should be delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No volume exists</t>
-  </si>
-  <si>
-    <t>volume -i 10 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 11 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 12 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdvMode: Active-Passive</t>
-  </si>
-  <si>
-    <t>AdvMode: Active-Passive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 8 -p 0 -s "syncmode=sync,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 9 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 6 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific volume not exists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i 2 -p 1 -s "syncmode=async"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i 3 -p 1 -s "syncmode=semi-sync"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i 4 -p 0 -s "syncmode=sync"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t local -i 5 -p 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -i 12 -s "name=no_way"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a add -t volume -d 12 -s "name=test_replica"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -a add -p volume -i 0 -l 12 -m 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -i 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -i 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -i 12 -s "capacity=102GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -i 4 -s "capacity=102GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a unexport -i 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a stop -i 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -v -i 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Destination Pool availiable size is not enough</t>
-  </si>
-  <si>
-    <t>(async|semi-sync|sync)</t>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 6 -p 0 -s "syncmode=async,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 7 -p 0 -s "syncmode=semi-sync,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 9 -p 0 -s "srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -931,13 +918,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
@@ -964,7 +951,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
@@ -972,13 +959,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -1005,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
@@ -1013,13 +1000,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -1046,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
@@ -1054,7 +1041,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -1087,24 +1074,10 @@
         <v>67</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M5" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1116,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1127,7 +1100,7 @@
     <col min="1" max="1" width="115.125" customWidth="1"/>
     <col min="2" max="2" width="65.25" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
@@ -1154,7 +1127,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
@@ -1187,7 +1160,7 @@
         <v>67</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
@@ -1195,7 +1168,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>96</v>
@@ -1228,7 +1201,7 @@
         <v>67</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
@@ -1236,7 +1209,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>97</v>
@@ -1269,7 +1242,7 @@
         <v>67</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
@@ -1277,13 +1250,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -1310,24 +1283,10 @@
         <v>67</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M5" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1325,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -1377,7 +1336,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -1388,7 +1347,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -1399,7 +1358,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
@@ -1410,7 +1369,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -1421,7 +1380,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -1432,7 +1391,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -1443,7 +1402,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
@@ -1514,13 +1473,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -1595,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1647,7 +1606,7 @@
         <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1702,66 +1661,66 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
         <v>109</v>
-      </c>
-      <c r="B16" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -1798,7 +1757,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1881,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1972,7 +1931,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1983,12 +1942,45 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>82</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>3</v>
       </c>
     </row>

--- a/data/migrate.xlsx
+++ b/data/migrate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="start_local_migrate" sheetId="5" r:id="rId1"/>
@@ -397,10 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>migrate -a start -t remote -i 0 -p 0 -s "syncmode=t,srcip=10.84.2.164,dstip=10.84.2.115, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ip nonconformity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,10 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.84.254.164,dstip=10.84.1.115, password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>specify nonexistent source host</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -440,10 +432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>migrate -a start -t remote -i 8 -p 0 -s "syncmode=sync,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>volume -i 9 -v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,32 +484,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>migrate -a stop -i 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -v -i 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Destination Pool availiable size is not enough</t>
   </si>
   <si>
     <t>(async|semi-sync|sync)</t>
   </si>
   <si>
-    <t>migrate -a start -t remote -i 6 -p 0 -s "syncmode=async,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 7 -p 0 -s "syncmode=semi-sync,srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>migrate -a start -t remote -i 9 -p 0 -s "srcip=10.84.2.164,dstip=10.84.2.115,password=password"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>migrate -a start -t remote</t>
   </si>
   <si>
@@ -532,6 +500,32 @@
   </si>
   <si>
     <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=256.0.0.1,dstip=10.0.0.2, password=password"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 6 -p 0 -s "syncmode=async,srcip=10.84.2.164,dstip=10.84.2.113,password=password"</t>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 7 -p 0 -s "syncmode=semi-sync,srcip=10.84.2.164,dstip=10.84.2.113,password=password"</t>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 8 -p 0 -s "syncmode=sync,srcip=10.84.2.164,dstip=10.84.2.113,password=password"</t>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 9 -p 0 -s "srcip=10.84.2.164,dstip=10.84.2.113,password=password"</t>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "syncmode=t,srcip=10.84.2.164,dstip=10.84.2.113, password=password"</t>
+  </si>
+  <si>
+    <t>migrate -a start -t remote -i 0 -p 0 -s "srcip=10.84.254.164,dstip=10.84.1.113, password=password"</t>
+  </si>
+  <si>
+    <t>migrate -a stop -i 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -v -i 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,7 +877,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -918,13 +912,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
@@ -951,7 +945,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
@@ -959,13 +953,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -992,7 +986,7 @@
         <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
@@ -1000,13 +994,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -1033,7 +1027,7 @@
         <v>21</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
@@ -1041,7 +1035,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -1074,7 +1068,7 @@
         <v>67</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M5" t="s">
         <v>24</v>
@@ -1092,7 +1086,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1127,7 +1121,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
@@ -1160,7 +1154,7 @@
         <v>67</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
@@ -1168,7 +1162,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>96</v>
@@ -1201,7 +1195,7 @@
         <v>67</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
@@ -1209,7 +1203,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>97</v>
@@ -1242,7 +1236,7 @@
         <v>67</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
@@ -1256,7 +1250,7 @@
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -1283,7 +1277,7 @@
         <v>67</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M5" t="s">
         <v>24</v>
@@ -1325,7 +1319,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -1336,7 +1330,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -1347,7 +1341,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -1358,7 +1352,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
@@ -1369,7 +1363,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -1380,7 +1374,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -1391,7 +1385,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -1402,7 +1396,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
@@ -1446,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1473,13 +1467,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -1554,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1606,7 +1600,7 @@
         <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1661,26 +1655,26 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1688,7 +1682,7 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -1696,15 +1690,15 @@
         <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -1712,15 +1706,15 @@
         <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -1931,7 +1925,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1942,7 +1936,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1953,7 +1947,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
